--- a/BalanceSheet/ZS_bal.xlsx
+++ b/BalanceSheet/ZS_bal.xlsx
@@ -807,19 +807,19 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4551000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>76000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>-1061000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2526000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>-565000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>3784000.0</v>
